--- a/medicine/Enfance/Phyllis_Whitney/Phyllis_Whitney.xlsx
+++ b/medicine/Enfance/Phyllis_Whitney/Phyllis_Whitney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllis Ayame Whitney (9 septembre 1903, Yokohama - 8 février 2008, Faber, Virginie) est une femme de lettres américaine auteur de romans à suspense. Rares en leur genre, ses romans s'adressent à la fois un public jeune et adulte. Un critique du New York Times l'a surnommée « la reine des gothiques américains ». Elle signe ses textes Phyllis Whitney ou Phyllis A. Whitney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née au Japon, à Yokohama, de parents américains, elle passe ses jeunes années en Asie, où son père meurt en 1918.  Sa mère et elle reviennent alors en Amérique. Amorcées dans des établissements européens et américains implantés en Asie, ses études sont complétées en 1924 aux États-Unis, la jeune Phyllis ayant d'abord fréquenté une école de San Antonio, au Texas, où meurt sa mère, puis à Chicago, où sa tante l'a recueillie. Elle épouse en 1925 George A. Garner, dont elle divorce en 1945.  Elle se remarie en 1950 avec Lovell F. Jahnke, qui décèdera en 1973. 
 En 1941, Phillis Whitney enseigne la danse pendant un an, au Texas, mais le succès de A Place for Ann (1941), son premier ouvrage de littérature d'enfance et de jeunesse, la convainc de se lancer dans l'écriture. Elle publie pendant sa longue carrière plus de soixante-dix romans, dont une bonne moitié de romans policiers destinés aux adultes, qui appartiennent au sous-genre des suspenses sentimentaux. En 1961, The Mystery of the Haunted Pool remporte le prix Edgar-Allan-Poe de la part des Mystery Writers of America dans la catégorie du meilleur roman pour la jeunesse, puis elle récidive en 1964 avec The Mystery of the Hidden Hand. En 1988, les MWA la récompensent pour l'ensemble de son œuvre avec le Grand Master Award. 
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Red is for Murder ou The Red Carnelian (1943) Publié en français sous le titre Temps mort pour un boléro, Paris, Éditions Mondiales, coll. Intimité no 287, 1970
 The Quicksilver Pool (1955) Publié en français sous le titre La Peur du passé, Paris, Éditions de Trévise, 1974 ; réédition, Paris, Pocket no 1631, 1978
 The Trembling Hills (1956) Publié en français sous le titre Un feu dévorant, Paris, Éditions de Trévise, coll. Stendhal, 1964
@@ -586,7 +606,43 @@
 Star Flight (1993)
 Daughter of the Stars (1994)
 Amethyst Dreams (1997)
-Ouvrages de littérature d'enfance et de jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phyllis_Whitney</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllis_Whitney</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 A Place for Ann (1941)
 A Star for Jenny (1942)
 A Window for Julie (1943)
@@ -620,7 +676,43 @@
 Mystery of the Scrowling Boy (1973)
 Secret of Haunted Mesa (1975)
 Secret of the Stone Face (1977)
-Nouvelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phyllis_Whitney</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllis_Whitney</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Grease Paint (1932)
 Gallant Rogue (1933)
 Cornflower Blue (1934)
@@ -634,67 +726,106 @@
 How Do You Love? (1941)
 Quivering Ground (1942)
 Rainbow in the Mist (1989)
-Autres publications
-Writing Juvenile Fiction (1947)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phyllis_Whitney</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllis_Whitney</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Writing Juvenile Fiction (1947)
 Guide to Fiction Writing (1982)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Phyllis_Whitney</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Phyllis_Whitney</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Grand Master Award 1988</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Phyllis_Whitney</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Phyllis_Whitney</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>John M. Reilly, Twentieth Century Crime and Mystery Writers, 2e édition, New York, St. Martin's Press, p. 900-902.</t>
         </is>
